--- a/databases/cases.xlsx
+++ b/databases/cases.xlsx
@@ -13,38 +13,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
   <si>
     <t xml:space="preserve">Fecha </t>
   </si>
   <si>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provincia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patología de base </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexo </t>
+  </si>
+  <si>
     <t xml:space="preserve">Distribución de los casos por rango etario a la fecha </t>
   </si>
   <si>
-    <t>Nº</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provincia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patología de base </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexo </t>
-  </si>
-  <si>
     <t>Provicia \ día</t>
   </si>
   <si>
+    <t>CABA</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hombre </t>
+  </si>
+  <si>
+    <t>Bs As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mujer </t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt; 14 </t>
   </si>
   <si>
     <t>15-59</t>
   </si>
   <si>
+    <t xml:space="preserve">si </t>
+  </si>
+  <si>
     <t>&gt;60</t>
   </si>
   <si>
@@ -57,33 +78,12 @@
     <t>% de afectación en hombres</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>Fuente informe matutino del Ministro de Salud del 24-03-20</t>
   </si>
   <si>
-    <t>CABA</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hombre </t>
-  </si>
-  <si>
-    <t>Bs As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mujer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">si </t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t xml:space="preserve">CABA Casos Confirmados </t>
   </si>
   <si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>cuarentena total entra en vigencia desde 00:00hs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extensión de la cuarentena total </t>
   </si>
   <si>
     <t xml:space="preserve">Detalle de medidas gubernamentales </t>
@@ -449,9 +452,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="dd/mm"/>
-    <numFmt numFmtId="165" formatCode="dd-mm-yy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
+    <numFmt numFmtId="166" formatCode="dd-mm-yy"/>
     <numFmt numFmtId="167" formatCode="d/m"/>
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
@@ -522,53 +525,56 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -579,6 +585,9 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -857,101 +866,105 @@
     <col customWidth="1" min="16" max="16" width="11.86"/>
     <col customWidth="1" min="17" max="22" width="5.86"/>
     <col customWidth="1" min="23" max="23" width="4.71"/>
-    <col customWidth="1" min="24" max="24" width="5.86"/>
+    <col customWidth="1" min="24" max="25" width="5.86"/>
+    <col customWidth="1" min="26" max="26" width="7.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="5">
         <v>43893.0</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="10">
         <f t="shared" ref="C1:U1" si="1">B1+1</f>
         <v>43894</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="10">
         <f t="shared" si="1"/>
         <v>43895</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="10">
         <f t="shared" si="1"/>
         <v>43896</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="10">
         <f t="shared" si="1"/>
         <v>43897</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="10">
         <f t="shared" si="1"/>
         <v>43898</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="10">
         <f t="shared" si="1"/>
         <v>43899</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="10">
         <f t="shared" si="1"/>
         <v>43900</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="10">
         <f t="shared" si="1"/>
         <v>43901</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="10">
         <f t="shared" si="1"/>
         <v>43902</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="12">
         <f t="shared" si="1"/>
         <v>43903</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="10">
         <f t="shared" si="1"/>
         <v>43904</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="10">
         <f t="shared" si="1"/>
         <v>43905</v>
       </c>
-      <c r="O1" s="7">
+      <c r="O1" s="10">
         <f t="shared" si="1"/>
         <v>43906</v>
       </c>
-      <c r="P1" s="7">
+      <c r="P1" s="10">
         <f t="shared" si="1"/>
         <v>43907</v>
       </c>
-      <c r="Q1" s="7">
+      <c r="Q1" s="10">
         <f t="shared" si="1"/>
         <v>43908</v>
       </c>
-      <c r="R1" s="7">
+      <c r="R1" s="10">
         <f t="shared" si="1"/>
         <v>43909</v>
       </c>
-      <c r="S1" s="7">
+      <c r="S1" s="10">
         <f t="shared" si="1"/>
         <v>43910</v>
       </c>
-      <c r="T1" s="7">
+      <c r="T1" s="10">
         <f t="shared" si="1"/>
         <v>43911</v>
       </c>
-      <c r="U1" s="7">
+      <c r="U1" s="10">
         <f t="shared" si="1"/>
         <v>43912</v>
       </c>
-      <c r="V1" s="10">
+      <c r="V1" s="13">
         <v>43913.0</v>
       </c>
-      <c r="W1" s="12">
+      <c r="W1" s="14">
         <f>V1+1</f>
         <v>43914</v>
       </c>
-      <c r="X1" s="10">
+      <c r="X1" s="13">
         <v>43915.0</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>43916.0</v>
       </c>
     </row>
     <row r="2">
@@ -991,10 +1004,10 @@
       <c r="L2" s="1">
         <v>16.0</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="2">
         <v>23.0</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="2">
         <v>29.0</v>
       </c>
       <c r="O2" s="1">
@@ -1003,16 +1016,16 @@
       <c r="P2" s="1">
         <v>38.0</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="15">
         <v>48.0</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="15">
         <v>56.0</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="15">
         <v>65.0</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="15">
         <v>94.0</v>
       </c>
       <c r="U2" s="16">
@@ -1027,8 +1040,12 @@
         <f>V2+30</f>
         <v>147</v>
       </c>
-      <c r="X2" s="17">
+      <c r="X2" s="1">
         <v>166.0</v>
+      </c>
+      <c r="Y2" s="17">
+        <f>X2+30</f>
+        <v>196</v>
       </c>
     </row>
     <row r="3">
@@ -1080,29 +1097,32 @@
       <c r="P3" s="1">
         <v>3.0</v>
       </c>
-      <c r="Q3" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="R3" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="S3" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="T3" s="14">
+      <c r="Q3" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="R3" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="S3" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="T3" s="15">
         <v>25.0</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="15">
         <v>25.0</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="15">
         <v>38.0</v>
       </c>
-      <c r="W3" s="14">
+      <c r="W3" s="15">
         <v>38.0</v>
       </c>
       <c r="X3" s="1">
         <v>38.0</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>53.0</v>
       </c>
     </row>
     <row r="4">
@@ -1154,29 +1174,32 @@
       <c r="P4" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q4" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="R4" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="S4" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="T4" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="U4" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="V4" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="W4" s="14">
+      <c r="Q4" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="R4" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="S4" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="T4" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="U4" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="V4" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="W4" s="15">
         <v>2.0</v>
       </c>
       <c r="X4" s="1">
         <v>3.0</v>
+      </c>
+      <c r="Y4" s="18">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -1228,31 +1251,35 @@
       <c r="P5" s="1">
         <v>34.0</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="15">
         <v>43.0</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="15">
         <v>51.0</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="15">
         <v>60.0</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="15">
         <v>67.0</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="15">
         <v>79.0</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="15">
         <v>77.0</v>
       </c>
       <c r="W5" s="16">
-        <f t="shared" ref="W5:X5" si="2">W2-W3-W4</f>
+        <f t="shared" ref="W5:Y5" si="2">W2-W3-W4</f>
         <v>107</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="17">
         <f t="shared" si="2"/>
         <v>125</v>
+      </c>
+      <c r="Y5" s="17">
+        <f t="shared" si="2"/>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
@@ -1298,19 +1325,19 @@
       <c r="P6" s="1">
         <v>15.0</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="15">
         <v>20.0</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="15">
         <v>35.0</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="15">
         <v>44.0</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="15">
         <v>59.0</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="15">
         <v>67.0</v>
       </c>
       <c r="V6" s="16">
@@ -1321,9 +1348,13 @@
         <f t="shared" ref="W6:X6" si="3">V6+30</f>
         <v>102</v>
       </c>
-      <c r="X6" s="18">
+      <c r="X6" s="17">
         <f t="shared" si="3"/>
         <v>132</v>
+      </c>
+      <c r="Y6" s="17">
+        <f>X6+27</f>
+        <v>159</v>
       </c>
     </row>
     <row r="7">
@@ -1369,29 +1400,32 @@
       <c r="P7" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q7" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R7" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S7" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T7" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="U7" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V7" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W7" s="14">
+      <c r="Q7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T7" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U7" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V7" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="W7" s="15">
         <v>1.0</v>
       </c>
       <c r="X7" s="1">
         <v>1.0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
@@ -1437,29 +1471,32 @@
       <c r="P8" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q8" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R8" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S8" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T8" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="U8" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V8" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W8" s="14">
+      <c r="Q8" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R8" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T8" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U8" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V8" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="W8" s="15">
         <v>2.0</v>
       </c>
       <c r="X8" s="1">
         <v>2.0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -1505,29 +1542,33 @@
       <c r="P9" s="1">
         <v>15.0</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="15">
         <v>20.0</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="15">
         <v>35.0</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="15">
         <v>44.0</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="15">
         <v>57.0</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="15">
         <v>65.0</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="15">
         <v>70.0</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="15">
         <v>99.0</v>
       </c>
       <c r="X9" s="1">
         <v>129.0</v>
+      </c>
+      <c r="Y9" s="17">
+        <f>Y6-Y7-Y8</f>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
@@ -1570,19 +1611,19 @@
       <c r="P10" s="1">
         <v>5.0</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="15">
         <v>6.0</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="15">
         <v>9.0</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="15">
         <v>14.0</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="15">
         <v>18.0</v>
       </c>
-      <c r="U10" s="14">
+      <c r="U10" s="15">
         <f>T10+8</f>
         <v>26</v>
       </c>
@@ -1593,9 +1634,13 @@
         <f>V10+7</f>
         <v>35</v>
       </c>
-      <c r="X10" s="18">
+      <c r="X10" s="17">
         <f>W10+15</f>
         <v>50</v>
+      </c>
+      <c r="Y10" s="17">
+        <f>X10+3</f>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -1638,29 +1683,32 @@
       <c r="P11" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q11" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R11" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S11" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T11" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U11" s="14">
+      <c r="Q11" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R11" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S11" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T11" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U11" s="15">
         <v>0.0</v>
       </c>
       <c r="V11" s="19">
         <v>0.0</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="15">
         <v>0.0</v>
       </c>
       <c r="X11" s="1">
         <v>0.0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1703,28 +1751,31 @@
       <c r="P12" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q12" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R12" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S12" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T12" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U12" s="14">
+      <c r="Q12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U12" s="15">
         <v>0.0</v>
       </c>
       <c r="V12" s="19">
         <v>0.0</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W12" s="15">
         <v>0.0</v>
       </c>
       <c r="X12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y12" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -1768,29 +1819,32 @@
       <c r="P13" s="1">
         <v>5.0</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="15">
         <v>6.0</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="15">
         <v>9.0</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="15">
         <v>14.0</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="15">
         <v>18.0</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="15">
         <v>26.0</v>
       </c>
       <c r="V13" s="19">
         <v>28.0</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="15">
         <v>35.0</v>
       </c>
       <c r="X13" s="1">
         <v>50.0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>52.0</v>
       </c>
     </row>
     <row r="14">
@@ -1824,29 +1878,33 @@
       <c r="P14" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q14" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="R14" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="S14" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T14" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="U14" s="14">
+      <c r="Q14" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R14" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="S14" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T14" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U14" s="15">
         <v>1.0</v>
       </c>
       <c r="V14" s="19">
         <v>1.0</v>
       </c>
-      <c r="W14" s="14">
+      <c r="W14" s="15">
         <v>1.0</v>
       </c>
       <c r="X14" s="1">
         <v>5.0</v>
+      </c>
+      <c r="Y14" s="17">
+        <f>X14+1</f>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1880,28 +1938,31 @@
       <c r="P15" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q15" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R15" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S15" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T15" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U15" s="14">
+      <c r="Q15" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R15" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S15" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T15" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U15" s="15">
         <v>0.0</v>
       </c>
       <c r="V15" s="19">
         <v>0.0</v>
       </c>
-      <c r="W15" s="14">
+      <c r="W15" s="15">
         <v>0.0</v>
       </c>
       <c r="X15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y15" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -1936,28 +1997,31 @@
       <c r="P16" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q16" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R16" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S16" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T16" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U16" s="14">
+      <c r="Q16" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R16" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U16" s="15">
         <v>0.0</v>
       </c>
       <c r="V16" s="19">
         <v>0.0</v>
       </c>
-      <c r="W16" s="14">
+      <c r="W16" s="15">
         <v>0.0</v>
       </c>
       <c r="X16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y16" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -1992,29 +2056,32 @@
       <c r="P17" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q17" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="R17" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="S17" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T17" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="U17" s="14">
+      <c r="Q17" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R17" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="S17" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T17" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U17" s="15">
         <v>1.0</v>
       </c>
       <c r="V17" s="19">
         <v>1.0</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W17" s="15">
         <v>1.0</v>
       </c>
       <c r="X17" s="1">
         <v>5.0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
@@ -2048,16 +2115,16 @@
       <c r="P18" s="1">
         <v>11.0</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="15">
         <v>12.0</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="15">
         <v>14.0</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S18" s="15">
         <v>15.0</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="15">
         <v>20.0</v>
       </c>
       <c r="U18" s="16">
@@ -2072,9 +2139,13 @@
         <f>V18+9</f>
         <v>40</v>
       </c>
-      <c r="X18" s="18">
+      <c r="X18" s="17">
         <f>W18+12</f>
         <v>52</v>
+      </c>
+      <c r="Y18" s="17">
+        <f>X18+3</f>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -2108,28 +2179,31 @@
       <c r="P19" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q19" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R19" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S19" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T19" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U19" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V19" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W19" s="14">
+      <c r="Q19" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U19" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V19" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="15">
         <v>0.0</v>
       </c>
       <c r="X19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y19" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -2164,29 +2238,32 @@
       <c r="P20" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q20" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="R20" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="S20" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T20" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="U20" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V20" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W20" s="14">
+      <c r="Q20" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R20" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="S20" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T20" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V20" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="W20" s="15">
         <v>2.0</v>
       </c>
       <c r="X20" s="1">
         <v>3.0</v>
+      </c>
+      <c r="Y20" s="18">
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
@@ -2220,29 +2297,33 @@
       <c r="P21" s="1">
         <v>10.0</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="15">
         <v>11.0</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="15">
         <v>13.0</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S21" s="15">
         <v>14.0</v>
       </c>
-      <c r="T21" s="14">
+      <c r="T21" s="15">
         <v>19.0</v>
       </c>
-      <c r="U21" s="14">
+      <c r="U21" s="15">
         <v>26.0</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="15">
         <v>30.0</v>
       </c>
-      <c r="W21" s="14">
+      <c r="W21" s="15">
         <v>38.0</v>
       </c>
       <c r="X21" s="1">
         <v>49.0</v>
+      </c>
+      <c r="Y21" s="1">
+        <f>Y18-Y20</f>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -2276,28 +2357,31 @@
       <c r="P22" s="1">
         <v>2.0</v>
       </c>
-      <c r="Q22" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="R22" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="S22" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="T22" s="14">
+      <c r="Q22" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="R22" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="S22" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="T22" s="15">
         <v>4.0</v>
       </c>
-      <c r="U22" s="14">
+      <c r="U22" s="15">
         <v>4.0</v>
       </c>
-      <c r="V22" s="14">
+      <c r="V22" s="15">
         <v>4.0</v>
       </c>
-      <c r="W22" s="14">
+      <c r="W22" s="15">
         <v>4.0</v>
       </c>
       <c r="X22" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y22" s="1">
         <v>4.0</v>
       </c>
     </row>
@@ -2332,28 +2416,31 @@
       <c r="P23" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q23" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R23" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S23" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T23" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="U23" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V23" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W23" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="X23" s="17">
+      <c r="Q23" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R23" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S23" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T23" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U23" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V23" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="W23" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y23" s="18">
         <v>1.0</v>
       </c>
     </row>
@@ -2388,28 +2475,31 @@
       <c r="P24" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W24" s="14">
+      <c r="Q24" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R24" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S24" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T24" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U24" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V24" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="15">
         <v>0.0</v>
       </c>
       <c r="X24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y24" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -2444,29 +2534,32 @@
       <c r="P25" s="1">
         <v>2.0</v>
       </c>
-      <c r="Q25" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="R25" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="S25" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="T25" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="U25" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="V25" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="W25" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="X25" s="1">
-        <v>4.0</v>
+      <c r="Q25" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="R25" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="S25" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="T25" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="U25" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="V25" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="W25" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="X25" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y25" s="18">
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
@@ -2485,19 +2578,19 @@
       <c r="P26" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q26" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="R26" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="S26" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="T26" s="14">
+      <c r="Q26" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R26" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="S26" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="T26" s="15">
         <v>4.0</v>
       </c>
-      <c r="U26" s="14">
+      <c r="U26" s="15">
         <v>4.0</v>
       </c>
       <c r="V26" s="16">
@@ -2508,9 +2601,13 @@
         <f>V26+3</f>
         <v>20</v>
       </c>
-      <c r="X26" s="18">
+      <c r="X26" s="17">
         <f>W26+22</f>
         <v>42</v>
+      </c>
+      <c r="Y26" s="17">
+        <f>12+X26</f>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -2529,28 +2626,31 @@
       <c r="P27" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q27" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R27" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S27" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T27" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U27" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V27" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W27" s="14">
+      <c r="Q27" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R27" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T27" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U27" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V27" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W27" s="15">
         <v>0.0</v>
       </c>
       <c r="X27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y27" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -2570,28 +2670,31 @@
       <c r="P28" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q28" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R28" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S28" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T28" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U28" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V28" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W28" s="14">
+      <c r="Q28" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="15">
         <v>0.0</v>
       </c>
       <c r="X28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y28" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -2611,29 +2714,32 @@
       <c r="P29" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q29" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="R29" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="S29" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="T29" s="14">
+      <c r="Q29" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R29" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="S29" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="T29" s="15">
         <v>4.0</v>
       </c>
-      <c r="U29" s="14">
+      <c r="U29" s="15">
         <v>4.0</v>
       </c>
-      <c r="V29" s="14">
+      <c r="V29" s="15">
         <v>17.0</v>
       </c>
-      <c r="W29" s="14">
+      <c r="W29" s="15">
         <v>20.0</v>
       </c>
       <c r="X29" s="1">
         <v>42.0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>54.0</v>
       </c>
     </row>
     <row r="30">
@@ -2649,31 +2755,35 @@
       <c r="P30" s="1">
         <v>2.0</v>
       </c>
-      <c r="Q30" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="R30" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="S30" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="T30" s="14">
+      <c r="Q30" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="R30" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="S30" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="T30" s="15">
         <v>6.0</v>
       </c>
-      <c r="U30" s="14">
+      <c r="U30" s="15">
         <v>6.0</v>
       </c>
-      <c r="V30" s="14">
+      <c r="V30" s="15">
         <v>6.0</v>
       </c>
       <c r="W30" s="16">
         <f>V30+4</f>
         <v>10</v>
       </c>
-      <c r="X30" s="18">
+      <c r="X30" s="17">
         <f>W30+1</f>
         <v>11</v>
+      </c>
+      <c r="Y30" s="17">
+        <f>X30+3</f>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -2689,28 +2799,31 @@
       <c r="P31" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q31" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R31" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S31" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T31" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U31" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V31" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W31" s="14">
+      <c r="Q31" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R31" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S31" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T31" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U31" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V31" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="15">
         <v>0.0</v>
       </c>
       <c r="X31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y31" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -2727,28 +2840,31 @@
       <c r="P32" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q32" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R32" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S32" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T32" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U32" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V32" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W32" s="14">
+      <c r="Q32" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R32" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S32" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T32" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U32" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V32" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W32" s="15">
         <v>0.0</v>
       </c>
       <c r="X32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y32" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -2765,29 +2881,32 @@
       <c r="P33" s="1">
         <v>2.0</v>
       </c>
-      <c r="Q33" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="R33" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="S33" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="T33" s="14">
+      <c r="Q33" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="R33" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="S33" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="T33" s="15">
         <v>6.0</v>
       </c>
-      <c r="U33" s="14">
+      <c r="U33" s="15">
         <v>6.0</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V33" s="15">
         <v>6.0</v>
       </c>
-      <c r="W33" s="14">
+      <c r="W33" s="15">
         <v>10.0</v>
       </c>
       <c r="X33" s="1">
         <v>11.0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>14.0</v>
       </c>
     </row>
     <row r="34">
@@ -2799,29 +2918,33 @@
       <c r="P34" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q34" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="R34" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="S34" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T34" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="U34" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V34" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W34" s="14">
+      <c r="Q34" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R34" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="S34" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T34" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U34" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V34" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="W34" s="15">
         <v>1.0</v>
       </c>
       <c r="X34" s="1">
         <v>1.0</v>
+      </c>
+      <c r="Y34" s="17">
+        <f>X34+2</f>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2833,28 +2956,31 @@
       <c r="P35" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q35" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R35" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S35" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T35" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U35" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V35" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W35" s="14">
+      <c r="Q35" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W35" s="15">
         <v>0.0</v>
       </c>
       <c r="X35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y35" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -2867,28 +2993,31 @@
       <c r="P36" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q36" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R36" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S36" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T36" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U36" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V36" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W36" s="14">
+      <c r="Q36" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R36" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S36" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T36" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U36" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V36" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W36" s="15">
         <v>0.0</v>
       </c>
       <c r="X36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y36" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -2901,29 +3030,32 @@
       <c r="P37" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q37" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="R37" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="S37" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T37" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="U37" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V37" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W37" s="14">
+      <c r="Q37" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="S37" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="W37" s="15">
         <v>1.0</v>
       </c>
       <c r="X37" s="1">
         <v>1.0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
@@ -2935,28 +3067,31 @@
       <c r="P38" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q38" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="R38" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="S38" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T38" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="U38" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V38" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W38" s="14">
+      <c r="Q38" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R38" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="S38" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T38" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U38" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V38" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="W38" s="15">
         <v>1.0</v>
       </c>
       <c r="X38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y38" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -2969,28 +3104,31 @@
       <c r="P39" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q39" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R39" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S39" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T39" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U39" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V39" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W39" s="14">
+      <c r="Q39" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R39" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S39" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T39" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U39" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V39" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W39" s="15">
         <v>0.0</v>
       </c>
       <c r="X39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y39" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3003,28 +3141,31 @@
       <c r="P40" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q40" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R40" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S40" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T40" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U40" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V40" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W40" s="14">
+      <c r="Q40" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R40" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S40" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T40" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U40" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V40" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W40" s="15">
         <v>0.0</v>
       </c>
       <c r="X40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y40" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3037,28 +3178,31 @@
       <c r="P41" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q41" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="R41" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="S41" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T41" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="U41" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V41" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W41" s="14">
+      <c r="Q41" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R41" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="S41" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T41" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U41" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V41" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="W41" s="15">
         <v>1.0</v>
       </c>
       <c r="X41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y41" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -3071,28 +3215,31 @@
       <c r="P42" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q42" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="R42" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="S42" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="T42" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="U42" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="V42" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="W42" s="14">
+      <c r="Q42" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="R42" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="S42" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="T42" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="U42" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="V42" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="W42" s="15">
         <v>3.0</v>
       </c>
       <c r="X42" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Y42" s="1">
         <v>6.0</v>
       </c>
     </row>
@@ -3105,28 +3252,31 @@
       <c r="P43" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q43" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R43" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S43" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T43" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U43" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V43" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W43" s="14">
+      <c r="Q43" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R43" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S43" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W43" s="15">
         <v>0.0</v>
       </c>
       <c r="X43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y43" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3140,28 +3290,31 @@
       <c r="P44" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q44" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R44" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S44" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T44" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U44" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V44" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W44" s="14">
+      <c r="Q44" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R44" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S44" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T44" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U44" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V44" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W44" s="15">
         <v>0.0</v>
       </c>
       <c r="X44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y44" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3174,28 +3327,31 @@
       <c r="P45" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q45" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="R45" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="S45" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="T45" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="U45" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="V45" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="W45" s="14">
+      <c r="Q45" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="R45" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="S45" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="T45" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="W45" s="15">
         <v>3.0</v>
       </c>
       <c r="X45" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Y45" s="1">
         <v>6.0</v>
       </c>
     </row>
@@ -3206,24 +3362,27 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T46" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="U46" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="V46" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="W46" s="14">
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T46" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="U46" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="V46" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="W46" s="15">
         <v>3.0</v>
       </c>
       <c r="X46" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y46" s="1">
         <v>3.0</v>
       </c>
     </row>
@@ -3234,24 +3393,27 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T47" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U47" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V47" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W47" s="14">
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W47" s="15">
         <v>0.0</v>
       </c>
       <c r="X47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y47" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3262,24 +3424,27 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T48" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U48" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V48" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W48" s="14">
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T48" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U48" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V48" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W48" s="15">
         <v>0.0</v>
       </c>
       <c r="X48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y48" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3290,24 +3455,27 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T49" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="U49" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="V49" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="W49" s="14">
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="W49" s="15">
         <v>3.0</v>
       </c>
       <c r="X49" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y49" s="1">
         <v>3.0</v>
       </c>
     </row>
@@ -3318,24 +3486,27 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T50" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="U50" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V50" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W50" s="14">
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T50" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U50" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V50" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="W50" s="15">
         <v>1.0</v>
       </c>
       <c r="X50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y50" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -3346,24 +3517,27 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T51" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U51" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V51" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W51" s="14">
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T51" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U51" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V51" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W51" s="15">
         <v>0.0</v>
       </c>
       <c r="X51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y51" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3374,24 +3548,27 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T52" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U52" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V52" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W52" s="14">
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T52" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U52" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V52" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W52" s="15">
         <v>0.0</v>
       </c>
       <c r="X52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3402,24 +3579,27 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T53" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="U53" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V53" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W53" s="14">
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T53" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="W53" s="15">
         <v>1.0</v>
       </c>
       <c r="X53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y53" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -3430,25 +3610,28 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="T54" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="U54" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="V54" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="W54" s="14">
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="T54" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="U54" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="V54" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="W54" s="15">
         <v>3.0</v>
       </c>
       <c r="X54" s="1">
         <v>4.0</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>7.0</v>
       </c>
     </row>
     <row r="55">
@@ -3458,24 +3641,27 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T55" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U55" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V55" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W55" s="14">
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W55" s="15">
         <v>0.0</v>
       </c>
       <c r="X55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y55" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3486,24 +3672,27 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T56" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U56" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V56" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W56" s="14">
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T56" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U56" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V56" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W56" s="15">
         <v>0.0</v>
       </c>
       <c r="X56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y56" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3514,25 +3703,28 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="T57" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="U57" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="V57" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="W57" s="14">
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="T57" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="U57" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="V57" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="W57" s="15">
         <v>3.0</v>
       </c>
       <c r="X57" s="1">
         <v>4.0</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>7.0</v>
       </c>
     </row>
     <row r="58">
@@ -3542,23 +3734,26 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14">
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15">
         <v>5.0</v>
       </c>
-      <c r="U58" s="14">
+      <c r="U58" s="15">
         <v>5.0</v>
       </c>
-      <c r="V58" s="14">
+      <c r="V58" s="15">
         <v>5.0</v>
       </c>
-      <c r="W58" s="14">
+      <c r="W58" s="15">
         <v>5.0</v>
       </c>
       <c r="X58" s="1">
         <v>6.0</v>
+      </c>
+      <c r="Y58" s="18">
+        <v>7.0</v>
       </c>
     </row>
     <row r="59">
@@ -3568,22 +3763,25 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U59" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V59" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W59" s="14">
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U59" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V59" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W59" s="15">
         <v>0.0</v>
       </c>
       <c r="X59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3594,22 +3792,25 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U60" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V60" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W60" s="14">
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U60" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V60" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W60" s="15">
         <v>0.0</v>
       </c>
       <c r="X60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y60" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3620,23 +3821,26 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
-      <c r="T61" s="14">
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15">
         <v>5.0</v>
       </c>
-      <c r="U61" s="14">
+      <c r="U61" s="15">
         <v>5.0</v>
       </c>
-      <c r="V61" s="14">
+      <c r="V61" s="15">
         <v>5.0</v>
       </c>
-      <c r="W61" s="14">
+      <c r="W61" s="15">
         <v>5.0</v>
       </c>
       <c r="X61" s="1">
         <v>6.0</v>
+      </c>
+      <c r="Y61" s="18">
+        <v>7.0</v>
       </c>
     </row>
     <row r="62">
@@ -3646,26 +3850,29 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="S62" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T62" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="U62" s="14">
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="S62" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T62" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="U62" s="15">
         <v>7.0</v>
       </c>
-      <c r="V62" s="14">
+      <c r="V62" s="15">
         <v>7.0</v>
       </c>
-      <c r="W62" s="14">
+      <c r="W62" s="15">
         <v>7.0</v>
       </c>
-      <c r="X62" s="17">
+      <c r="X62" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="Y62" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -3676,26 +3883,29 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S63" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T63" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U63" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V63" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W63" s="14">
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S63" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T63" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U63" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V63" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W63" s="15">
         <v>0.0</v>
       </c>
       <c r="X63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y63" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3706,26 +3916,29 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S64" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T64" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U64" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V64" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W64" s="14">
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S64" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T64" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U64" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V64" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W64" s="15">
         <v>0.0</v>
       </c>
       <c r="X64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3736,26 +3949,29 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="S65" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T65" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="U65" s="14">
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="S65" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T65" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="U65" s="15">
         <v>7.0</v>
       </c>
-      <c r="V65" s="14">
+      <c r="V65" s="15">
         <v>7.0</v>
       </c>
-      <c r="W65" s="14">
+      <c r="W65" s="15">
         <v>7.0</v>
       </c>
-      <c r="X65" s="17">
+      <c r="X65" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="Y65" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -3768,29 +3984,33 @@
       <c r="P66" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q66" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="R66" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="S66" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T66" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="U66" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V66" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W66" s="14">
+      <c r="Q66" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R66" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="S66" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T66" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U66" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V66" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="W66" s="15">
         <v>2.0</v>
       </c>
       <c r="X66" s="1">
         <v>7.0</v>
+      </c>
+      <c r="Y66" s="17">
+        <f>X66+2</f>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -3802,28 +4022,31 @@
       <c r="P67" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q67" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R67" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S67" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T67" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U67" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V67" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W67" s="14">
+      <c r="Q67" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R67" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S67" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T67" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U67" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V67" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W67" s="15">
         <v>0.0</v>
       </c>
       <c r="X67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3836,28 +4059,31 @@
       <c r="P68" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q68" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R68" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="S68" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="T68" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="U68" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V68" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W68" s="14">
+      <c r="Q68" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R68" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S68" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T68" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U68" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V68" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W68" s="15">
         <v>0.0</v>
       </c>
       <c r="X68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -3870,29 +4096,32 @@
       <c r="P69" s="1">
         <v>1.0</v>
       </c>
-      <c r="Q69" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="R69" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="S69" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="T69" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="U69" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V69" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W69" s="14">
+      <c r="Q69" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R69" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="S69" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T69" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U69" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V69" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="W69" s="15">
         <v>2.0</v>
       </c>
       <c r="X69" s="1">
         <v>7.0</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>9.0</v>
       </c>
     </row>
     <row r="70">
@@ -3951,16 +4180,19 @@
       <c r="R74" s="16"/>
       <c r="S74" s="16"/>
       <c r="T74" s="16"/>
-      <c r="U74" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V74" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W74" s="14">
+      <c r="U74" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V74" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="W74" s="15">
         <v>1.0</v>
       </c>
       <c r="X74" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y74" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -3972,16 +4204,19 @@
       <c r="R75" s="16"/>
       <c r="S75" s="16"/>
       <c r="T75" s="16"/>
-      <c r="U75" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V75" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W75" s="14">
+      <c r="U75" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V75" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W75" s="15">
         <v>0.0</v>
       </c>
       <c r="X75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y75" s="18">
         <v>0.0</v>
       </c>
     </row>
@@ -3993,16 +4228,19 @@
       <c r="R76" s="16"/>
       <c r="S76" s="16"/>
       <c r="T76" s="16"/>
-      <c r="U76" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V76" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W76" s="14">
+      <c r="U76" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V76" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W76" s="15">
         <v>0.0</v>
       </c>
       <c r="X76" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y76" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -4014,16 +4252,19 @@
       <c r="R77" s="16"/>
       <c r="S77" s="16"/>
       <c r="T77" s="16"/>
-      <c r="U77" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V77" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W77" s="14">
+      <c r="U77" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V77" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="W77" s="15">
         <v>1.0</v>
       </c>
       <c r="X77" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y77" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -4218,6 +4459,7 @@
       <c r="U93" s="16"/>
       <c r="V93" s="16"/>
       <c r="W93" s="16"/>
+      <c r="Z93" s="20"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
@@ -4229,10 +4471,13 @@
       <c r="T94" s="16"/>
       <c r="U94" s="16"/>
       <c r="V94" s="16"/>
-      <c r="W94" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="X94" s="17">
+      <c r="W94" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="X94" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y94" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -4241,10 +4486,13 @@
         <v>116</v>
       </c>
       <c r="V95" s="16"/>
-      <c r="W95" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="X95" s="1">
+      <c r="W95" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="X95" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="Y95" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -4253,10 +4501,13 @@
         <v>117</v>
       </c>
       <c r="V96" s="16"/>
-      <c r="W96" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="X96" s="1">
+      <c r="W96" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="X96" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="Y96" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -4265,360 +4516,371 @@
         <v>118</v>
       </c>
       <c r="V97" s="16"/>
-      <c r="W97" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="X97" s="1">
+      <c r="W97" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="X97" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Y97" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B98" s="13">
-        <f t="shared" ref="B98:X98" si="4">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B66+B62+B46+B54+B50+B58+B70+B74+B78+B82+B86+B90+B94</f>
+      <c r="B98" s="9">
+        <f t="shared" ref="B98:Y98" si="4">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B66+B62+B46+B54+B50+B58+B70+B74+B78+B82+B86+B90+B94</f>
         <v>1</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E98" s="13">
+      <c r="E98" s="9">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="F98" s="13">
+      <c r="F98" s="9">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G98" s="13">
+      <c r="G98" s="9">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="H98" s="13">
+      <c r="H98" s="9">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="I98" s="13">
+      <c r="I98" s="9">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="J98" s="13">
+      <c r="J98" s="9">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="K98" s="13">
+      <c r="K98" s="9">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="L98" s="13">
+      <c r="L98" s="9">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="M98" s="13">
+      <c r="M98" s="9">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="N98" s="13">
+      <c r="N98" s="9">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="O98" s="13">
+      <c r="O98" s="9">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="P98" s="13">
+      <c r="P98" s="9">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="Q98" s="13">
+      <c r="Q98" s="9">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="R98" s="13">
+      <c r="R98" s="9">
         <f t="shared" si="4"/>
         <v>128</v>
       </c>
-      <c r="S98" s="13">
+      <c r="S98" s="9">
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="T98" s="13">
+      <c r="T98" s="9">
         <f t="shared" si="4"/>
         <v>225</v>
       </c>
-      <c r="U98" s="13">
+      <c r="U98" s="9">
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
-      <c r="V98" s="13">
+      <c r="V98" s="9">
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
-      <c r="W98" s="13">
+      <c r="W98" s="9">
         <f t="shared" si="4"/>
         <v>387</v>
       </c>
-      <c r="X98" s="13">
+      <c r="X98" s="9">
         <f t="shared" si="4"/>
         <v>502</v>
       </c>
-      <c r="Y98" s="15"/>
-      <c r="Z98" s="15"/>
-      <c r="AA98" s="15"/>
-      <c r="AB98" s="15"/>
-      <c r="AC98" s="15"/>
-      <c r="AD98" s="15"/>
-      <c r="AE98" s="15"/>
-      <c r="AF98" s="15"/>
-      <c r="AG98" s="15"/>
+      <c r="Y98" s="9">
+        <f t="shared" si="4"/>
+        <v>589</v>
+      </c>
+      <c r="Z98" s="11"/>
+      <c r="AA98" s="11"/>
+      <c r="AB98" s="11"/>
+      <c r="AC98" s="11"/>
+      <c r="AD98" s="11"/>
+      <c r="AE98" s="11"/>
+      <c r="AF98" s="11"/>
     </row>
     <row r="99">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B99" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="C99" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="D99" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E99" s="11">
+      <c r="B99" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D99" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E99" s="7">
         <v>8.0</v>
       </c>
-      <c r="F99" s="11">
+      <c r="F99" s="7">
         <v>9.0</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99" s="7">
         <v>12.0</v>
       </c>
-      <c r="H99" s="11">
+      <c r="H99" s="7">
         <v>17.0</v>
       </c>
-      <c r="I99" s="11">
+      <c r="I99" s="7">
         <v>19.0</v>
       </c>
-      <c r="J99" s="11">
+      <c r="J99" s="7">
         <v>21.0</v>
       </c>
-      <c r="K99" s="11">
+      <c r="K99" s="7">
         <v>31.0</v>
       </c>
-      <c r="L99" s="11">
+      <c r="L99" s="7">
         <v>34.0</v>
       </c>
-      <c r="M99" s="11">
+      <c r="M99" s="7">
         <v>45.0</v>
       </c>
-      <c r="N99" s="11">
+      <c r="N99" s="7">
         <v>56.0</v>
       </c>
-      <c r="O99" s="11">
+      <c r="O99" s="7">
         <v>65.0</v>
       </c>
-      <c r="P99" s="11">
+      <c r="P99" s="7">
         <v>79.0</v>
       </c>
-      <c r="Q99" s="11">
+      <c r="Q99" s="7">
         <v>97.0</v>
       </c>
-      <c r="R99" s="13">
+      <c r="R99" s="9">
         <f>97+31</f>
         <v>128</v>
       </c>
-      <c r="S99" s="11">
+      <c r="S99" s="7">
         <v>158.0</v>
       </c>
-      <c r="T99" s="11">
+      <c r="T99" s="7">
         <v>225.0</v>
       </c>
-      <c r="U99" s="11">
+      <c r="U99" s="7">
         <v>266.0</v>
       </c>
-      <c r="V99" s="11">
+      <c r="V99" s="7">
         <v>301.0</v>
       </c>
-      <c r="W99" s="11">
+      <c r="W99" s="7">
         <v>387.0</v>
       </c>
-      <c r="X99" s="20">
+      <c r="X99" s="7">
         <v>502.0</v>
       </c>
-      <c r="Y99" s="15"/>
-      <c r="Z99" s="15"/>
-      <c r="AA99" s="15"/>
-      <c r="AB99" s="15"/>
-      <c r="AC99" s="15"/>
-      <c r="AD99" s="15"/>
-      <c r="AE99" s="15"/>
-      <c r="AF99" s="15"/>
-      <c r="AG99" s="15"/>
+      <c r="Y99" s="21">
+        <v>589.0</v>
+      </c>
+      <c r="Z99" s="11"/>
+      <c r="AA99" s="11"/>
+      <c r="AB99" s="11"/>
+      <c r="AC99" s="11"/>
+      <c r="AD99" s="11"/>
+      <c r="AE99" s="11"/>
+      <c r="AF99" s="11"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21">
-        <f t="shared" ref="C100:X100" si="5">C99/B99-1</f>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22">
+        <f t="shared" ref="C100:Y100" si="5">C99/B99-1</f>
         <v>0</v>
       </c>
-      <c r="D100" s="21">
+      <c r="D100" s="22">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E100" s="21">
+      <c r="E100" s="22">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="F100" s="21">
+      <c r="F100" s="22">
         <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
-      <c r="G100" s="21">
+      <c r="G100" s="22">
         <f t="shared" si="5"/>
         <v>0.3333333333</v>
       </c>
-      <c r="H100" s="21">
+      <c r="H100" s="22">
         <f t="shared" si="5"/>
         <v>0.4166666667</v>
       </c>
-      <c r="I100" s="21">
+      <c r="I100" s="22">
         <f t="shared" si="5"/>
         <v>0.1176470588</v>
       </c>
-      <c r="J100" s="21">
+      <c r="J100" s="22">
         <f t="shared" si="5"/>
         <v>0.1052631579</v>
       </c>
-      <c r="K100" s="21">
+      <c r="K100" s="22">
         <f t="shared" si="5"/>
         <v>0.4761904762</v>
       </c>
-      <c r="L100" s="21">
+      <c r="L100" s="22">
         <f t="shared" si="5"/>
         <v>0.09677419355</v>
       </c>
-      <c r="M100" s="21">
+      <c r="M100" s="22">
         <f t="shared" si="5"/>
         <v>0.3235294118</v>
       </c>
-      <c r="N100" s="21">
+      <c r="N100" s="22">
         <f t="shared" si="5"/>
         <v>0.2444444444</v>
       </c>
-      <c r="O100" s="21">
+      <c r="O100" s="22">
         <f t="shared" si="5"/>
         <v>0.1607142857</v>
       </c>
-      <c r="P100" s="21">
+      <c r="P100" s="22">
         <f t="shared" si="5"/>
         <v>0.2153846154</v>
       </c>
-      <c r="Q100" s="21">
+      <c r="Q100" s="22">
         <f t="shared" si="5"/>
         <v>0.2278481013</v>
       </c>
-      <c r="R100" s="21">
+      <c r="R100" s="22">
         <f t="shared" si="5"/>
         <v>0.3195876289</v>
       </c>
-      <c r="S100" s="21">
+      <c r="S100" s="22">
         <f t="shared" si="5"/>
         <v>0.234375</v>
       </c>
-      <c r="T100" s="21">
+      <c r="T100" s="22">
         <f t="shared" si="5"/>
         <v>0.4240506329</v>
       </c>
-      <c r="U100" s="21">
+      <c r="U100" s="22">
         <f t="shared" si="5"/>
         <v>0.1822222222</v>
       </c>
-      <c r="V100" s="21">
+      <c r="V100" s="22">
         <f t="shared" si="5"/>
         <v>0.1315789474</v>
       </c>
-      <c r="W100" s="21">
+      <c r="W100" s="22">
         <f t="shared" si="5"/>
         <v>0.2857142857</v>
       </c>
-      <c r="X100" s="21">
+      <c r="X100" s="22">
         <f t="shared" si="5"/>
         <v>0.2971576227</v>
       </c>
+      <c r="Y100" s="22">
+        <f t="shared" si="5"/>
+        <v>0.1733067729</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="2" t="s">
+      <c r="B101" s="23"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="2" t="s">
+      <c r="F101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="L101" s="2" t="s">
+      <c r="L101" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N101" s="2" t="s">
+      <c r="N101" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="O101" s="23" t="s">
+      <c r="O101" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="P101" s="2" t="s">
+      <c r="P101" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Q101" s="2" t="s">
+      <c r="Q101" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R101" s="22"/>
-      <c r="S101" s="23" t="s">
+      <c r="R101" s="23"/>
+      <c r="S101" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="T101" s="22"/>
-      <c r="U101" s="22"/>
-      <c r="V101" s="22"/>
-      <c r="W101" s="22"/>
-      <c r="X101" s="22"/>
-      <c r="Y101" s="22"/>
-      <c r="Z101" s="22"/>
-      <c r="AA101" s="22"/>
-      <c r="AB101" s="22"/>
-      <c r="AC101" s="22"/>
-      <c r="AD101" s="22"/>
-      <c r="AE101" s="22"/>
-      <c r="AF101" s="22"/>
-      <c r="AG101" s="22"/>
+      <c r="T101" s="23"/>
+      <c r="U101" s="23"/>
+      <c r="V101" s="23"/>
+      <c r="W101" s="23"/>
+      <c r="X101" s="23"/>
+      <c r="Y101" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z101" s="23"/>
+      <c r="AA101" s="23"/>
+      <c r="AB101" s="23"/>
+      <c r="AC101" s="23"/>
+      <c r="AD101" s="23"/>
+      <c r="AE101" s="23"/>
+      <c r="AF101" s="23"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="24" t="s">
-        <v>134</v>
+      <c r="C102" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="G102" s="1"/>
       <c r="Q102" s="1"/>
@@ -4631,55 +4893,55 @@
       <c r="Q103" s="1"/>
     </row>
     <row r="104">
-      <c r="A104" s="24" t="s">
-        <v>135</v>
+      <c r="A104" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B105" s="18">
+        <v>138</v>
+      </c>
+      <c r="B105" s="17">
         <f>U99/B99-1</f>
         <v>265</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B106" s="25">
+        <v>138</v>
+      </c>
+      <c r="B106" s="27">
         <f>(1+B105)^(1/20)-1</f>
         <v>0.3220384364</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="24" t="s">
-        <v>135</v>
+      <c r="A108" s="26" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F110" s="24" t="s">
         <v>142</v>
+      </c>
+      <c r="F110" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4720,169 +4982,169 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="5"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="3">
         <v>43897.0</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>64.0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="3">
         <v>43903.0</v>
       </c>
       <c r="B3" s="1">
         <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>61.0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="T3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="3">
         <v>43908.0</v>
       </c>
       <c r="B4" s="1">
         <v>3.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>64.0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="T4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="8">
+      <c r="A5" s="3">
         <v>43911.0</v>
       </c>
       <c r="B5" s="1">
         <v>4.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>67.0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="T5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="3">
         <v>43914.0</v>
       </c>
       <c r="B6" s="1">
         <v>5.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>71.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="T6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="3">
         <v>43914.0</v>
       </c>
       <c r="B7" s="1">
         <v>6.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>53.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="15"/>
-      <c r="AA52" s="15"/>
-      <c r="AB52" s="15"/>
-      <c r="AC52" s="15"/>
-      <c r="AD52" s="15"/>
-      <c r="AE52" s="15"/>
-      <c r="AF52" s="15"/>
-      <c r="AG52" s="15"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4903,30 +5165,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>43913.0</v>
       </c>
       <c r="B2" s="1">
@@ -4941,14 +5203,14 @@
       <c r="E2" s="1">
         <v>301.0</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>0.395</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
         <v>0.605</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/databases/cases.xlsx
+++ b/databases/cases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="174">
   <si>
     <t>Fecha</t>
   </si>
@@ -28,30 +28,30 @@
     <t>Teóricos Tasa 1.236</t>
   </si>
   <si>
+    <t>Provicia \ día</t>
+  </si>
+  <si>
     <t>MSE</t>
   </si>
   <si>
-    <t>Provicia \ día</t>
-  </si>
-  <si>
     <t xml:space="preserve">CABA Casos Confirmados </t>
   </si>
   <si>
     <t xml:space="preserve">CABA Casos Recuperados </t>
   </si>
   <si>
+    <t xml:space="preserve">CABA Casos Muertos </t>
+  </si>
+  <si>
+    <t>CABA Casos Activos</t>
+  </si>
+  <si>
     <t>total MSE</t>
   </si>
   <si>
     <t>Tasa por minimización del MSE (mean squared error) entre 13/03 y 25/3</t>
   </si>
   <si>
-    <t xml:space="preserve">CABA Casos Muertos </t>
-  </si>
-  <si>
-    <t>CABA Casos Activos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bs As Casos Confirmados </t>
   </si>
   <si>
@@ -64,27 +64,81 @@
     <t>Bs As  Casos Activos</t>
   </si>
   <si>
+    <t>03/15</t>
+  </si>
+  <si>
+    <t>03/16</t>
+  </si>
+  <si>
+    <t>03/17</t>
+  </si>
+  <si>
+    <t>03/18</t>
+  </si>
+  <si>
+    <t>03/19</t>
+  </si>
+  <si>
+    <t>03/20</t>
+  </si>
+  <si>
+    <t>03/21</t>
+  </si>
+  <si>
+    <t>03/22</t>
+  </si>
+  <si>
+    <t>03/23</t>
+  </si>
+  <si>
+    <t>03/24</t>
+  </si>
+  <si>
+    <t>03/25</t>
+  </si>
+  <si>
+    <t>03/26</t>
+  </si>
+  <si>
+    <t>03/27</t>
+  </si>
+  <si>
+    <t>03/28</t>
+  </si>
+  <si>
+    <t>03/29</t>
+  </si>
+  <si>
+    <t>03/30</t>
+  </si>
+  <si>
     <t xml:space="preserve">Córdoba Casos Confirmados </t>
   </si>
   <si>
+    <t>Tests realizados</t>
+  </si>
+  <si>
     <t>20202281585415264161</t>
   </si>
   <si>
     <t>ZaBlfONzILttXxum</t>
   </si>
   <si>
+    <t>Tests acumulativos</t>
+  </si>
+  <si>
+    <t>HTMF</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t xml:space="preserve">Córdoba Casos Recuperados </t>
   </si>
   <si>
     <t xml:space="preserve">Córdoba Casos Muertos </t>
   </si>
   <si>
-    <t>HTMF</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Córdoba Casos Activos</t>
   </si>
   <si>
@@ -109,37 +163,67 @@
     <t xml:space="preserve">Chaco Casos Muertos </t>
   </si>
   <si>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Patología de base</t>
+  </si>
+  <si>
     <t>Chaco Casos Activos</t>
   </si>
   <si>
+    <t>Sexo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Río Negro Casos Confirmados </t>
   </si>
   <si>
+    <t>CABA</t>
+  </si>
+  <si>
+    <t>diabetes, hipertensión, bronquitis crónica e insuficiencia renal.</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Río Negro Casos Recuperados </t>
   </si>
   <si>
+    <t>Chaco</t>
+  </si>
+  <si>
+    <t>patologías pulmonares anteriormente</t>
+  </si>
+  <si>
     <t xml:space="preserve">Río Negro Casos Muertos </t>
   </si>
   <si>
+    <t>diabético e hipertenso</t>
+  </si>
+  <si>
     <t>Río Negro Casos Activos</t>
   </si>
   <si>
+    <t>Bs As</t>
+  </si>
+  <si>
+    <t>patología de base</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santa Fe Casos Confirmados </t>
   </si>
   <si>
-    <t>Nº</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Patología de base</t>
-  </si>
-  <si>
-    <t>Sexo</t>
+    <t>sin morbilidades</t>
   </si>
   <si>
     <t xml:space="preserve">Santa Fe  Casos Recuperados </t>
@@ -151,70 +235,46 @@
     <t>Santa Fe Casos Activos</t>
   </si>
   <si>
-    <t>CABA</t>
-  </si>
-  <si>
-    <t>diabetes, hipertensión, bronquitis crónica e insuficiencia renal.</t>
-  </si>
-  <si>
-    <t>Hombre</t>
+    <t>obesidad, diabetes e hipertensión</t>
   </si>
   <si>
     <t xml:space="preserve">Tierra del F Casos Confirmados </t>
   </si>
   <si>
-    <t>Chaco</t>
-  </si>
-  <si>
-    <t>patologías pulmonares anteriormente</t>
-  </si>
-  <si>
-    <t>diabético e hipertenso</t>
-  </si>
-  <si>
-    <t>Bs As</t>
-  </si>
-  <si>
-    <t>patología de base</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>sin morbilidades</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tierra del F Casos Recuperados </t>
   </si>
   <si>
     <t xml:space="preserve">Tierra del F Casos Muertos </t>
   </si>
   <si>
-    <t>obesidad, diabetes e hipertensión</t>
-  </si>
-  <si>
     <t>Tierra del F Casos Activos</t>
   </si>
   <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Rio Negro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jujuy Casos Confirmados </t>
   </si>
   <si>
-    <t>Mendoza</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jujuy Casos Recuperados </t>
   </si>
   <si>
-    <t>Rio Negro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jujuy Casos Muertos </t>
   </si>
   <si>
+    <t>enfermedad pulmonar obstructiva crónica</t>
+  </si>
+  <si>
+    <t>Tucumán</t>
+  </si>
+  <si>
     <t>Jujuy Casos Activos</t>
   </si>
   <si>
-    <t>enfermedad pulmonar obstructiva crónica</t>
+    <t>obesidad, diabetes e hipertensión arterial</t>
   </si>
   <si>
     <t xml:space="preserve">Salta Casos Confirmados </t>
@@ -223,15 +283,9 @@
     <t xml:space="preserve">Salta Casos Recuperados </t>
   </si>
   <si>
-    <t>Tucumán</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salta Casos Muertos </t>
   </si>
   <si>
-    <t>obesidad, diabetes e hipertensión arterial</t>
-  </si>
-  <si>
     <t>Salta Casos Activos</t>
   </si>
   <si>
@@ -244,9 +298,15 @@
     <t xml:space="preserve">Entre Ríos Casos Recuperados </t>
   </si>
   <si>
+    <t xml:space="preserve">LA Rioja </t>
+  </si>
+  <si>
     <t xml:space="preserve">Entre Ríos Casos Muertos </t>
   </si>
   <si>
+    <t>Córdoba</t>
+  </si>
+  <si>
     <t>Entre Ríos Casos Activos</t>
   </si>
   <si>
@@ -479,60 +539,6 @@
   </si>
   <si>
     <t>https://gabgoh.github.io/COVID/index.html</t>
-  </si>
-  <si>
-    <t>03/15</t>
-  </si>
-  <si>
-    <t>03/16</t>
-  </si>
-  <si>
-    <t>03/17</t>
-  </si>
-  <si>
-    <t>03/18</t>
-  </si>
-  <si>
-    <t>03/19</t>
-  </si>
-  <si>
-    <t>03/20</t>
-  </si>
-  <si>
-    <t>03/21</t>
-  </si>
-  <si>
-    <t>03/22</t>
-  </si>
-  <si>
-    <t>03/23</t>
-  </si>
-  <si>
-    <t>03/24</t>
-  </si>
-  <si>
-    <t>03/25</t>
-  </si>
-  <si>
-    <t>03/26</t>
-  </si>
-  <si>
-    <t>03/27</t>
-  </si>
-  <si>
-    <t>03/28</t>
-  </si>
-  <si>
-    <t>03/29</t>
-  </si>
-  <si>
-    <t>03/30</t>
-  </si>
-  <si>
-    <t>Tests realizados</t>
-  </si>
-  <si>
-    <t>Tests acumulativos</t>
   </si>
 </sst>
 </file>
@@ -540,15 +546,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd/mm"/>
+    <numFmt numFmtId="164" formatCode="dd/mm"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="168" formatCode="d&quot; de &quot;mmmm"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="d&quot;/&quot;mm&quot;/&quot;"/>
+    <numFmt numFmtId="167" formatCode="d&quot;/&quot;mm&quot;/&quot;"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="169" formatCode="d&quot; de &quot;mmmm"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -568,17 +574,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
-    <font>
-      <b/>
-    </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -632,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -645,56 +649,56 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -703,29 +707,29 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -737,17 +741,11 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="170" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -781,11 +779,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="662200586"/>
-        <c:axId val="1226664465"/>
+        <c:axId val="395965846"/>
+        <c:axId val="1514853041"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="662200586"/>
+        <c:axId val="395965846"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,10 +825,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1226664465"/>
+        <c:crossAx val="1514853041"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1226664465"/>
+        <c:axId val="1514853041"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,7 +897,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662200586"/>
+        <c:crossAx val="395965846"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1222,181 +1220,185 @@
     <col customWidth="1" min="20" max="22" width="5.86"/>
     <col customWidth="1" min="23" max="23" width="4.71"/>
     <col customWidth="1" min="24" max="28" width="5.86"/>
-    <col customWidth="1" min="29" max="29" width="6.29"/>
+    <col customWidth="1" min="29" max="30" width="6.29"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3">
         <v>43893.0</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="6">
         <f t="shared" ref="C1:U1" si="1">B1+1</f>
         <v>43894</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="3">
         <f t="shared" si="1"/>
         <v>43895</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="3">
         <f t="shared" si="1"/>
         <v>43896</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="3">
         <f t="shared" si="1"/>
         <v>43897</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="3">
         <f t="shared" si="1"/>
         <v>43898</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="3">
         <f t="shared" si="1"/>
         <v>43899</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="3">
         <f t="shared" si="1"/>
         <v>43900</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="3">
         <f t="shared" si="1"/>
         <v>43901</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="3">
         <f t="shared" si="1"/>
         <v>43902</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="3">
         <f t="shared" si="1"/>
         <v>43903</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="3">
         <f t="shared" si="1"/>
         <v>43904</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="3">
         <f t="shared" si="1"/>
         <v>43905</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="3">
         <f t="shared" si="1"/>
         <v>43906</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="3">
         <f t="shared" si="1"/>
         <v>43907</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="3">
         <f t="shared" si="1"/>
         <v>43908</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="3">
         <f t="shared" si="1"/>
         <v>43909</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="3">
         <f t="shared" si="1"/>
         <v>43910</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="3">
         <f t="shared" si="1"/>
         <v>43911</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="3">
         <f t="shared" si="1"/>
         <v>43912</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="3">
         <v>43913.0</v>
       </c>
-      <c r="W1" s="5">
+      <c r="W1" s="3">
         <f>V1+1</f>
         <v>43914</v>
       </c>
-      <c r="X1" s="5">
+      <c r="X1" s="3">
         <v>43915.0</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Y1" s="3">
         <v>43916.0</v>
       </c>
-      <c r="Z1" s="5">
-        <f t="shared" ref="Z1:AC1" si="2">Y1+1</f>
+      <c r="Z1" s="3">
+        <f t="shared" ref="Z1:AD1" si="2">Y1+1</f>
         <v>43917</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AA1" s="3">
         <f t="shared" si="2"/>
         <v>43918</v>
       </c>
-      <c r="AB1" s="5">
+      <c r="AB1" s="3">
         <f t="shared" si="2"/>
         <v>43919</v>
       </c>
-      <c r="AC1" s="5">
+      <c r="AC1" s="3">
         <f t="shared" si="2"/>
         <v>43920</v>
       </c>
+      <c r="AD1" s="3">
+        <f t="shared" si="2"/>
+        <v>43921</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="9">
         <v>5.0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="9">
         <v>6.0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="9">
         <v>8.0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="9">
         <v>9.0</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="9">
         <v>10.0</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="9">
         <v>11.0</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="9">
         <v>14.0</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="9">
         <v>16.0</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="9">
         <v>23.0</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="9">
         <v>29.0</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="9">
         <v>34.0</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="9">
         <v>38.0</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="9">
         <v>48.0</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="9">
         <v>56.0</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="9">
         <v>65.0</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="9">
         <v>94.0</v>
       </c>
       <c r="U2" s="1">
@@ -1411,25 +1413,29 @@
         <f>V2+30</f>
         <v>147</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="9">
         <v>166.0</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="9">
         <v>197.0</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="9">
         <v>227.0</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="9">
         <v>245.0</v>
       </c>
       <c r="AB2" s="1">
         <f>AA2+13</f>
         <v>258</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="1">
         <f>AB2+34</f>
         <v>292</v>
+      </c>
+      <c r="AD2" s="1">
+        <f>19+AC2</f>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
@@ -1520,10 +1526,13 @@
       <c r="AC3" s="1">
         <v>53.0</v>
       </c>
+      <c r="AD3" s="1">
+        <v>53.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -1609,10 +1618,13 @@
       <c r="AC4" s="1">
         <v>8.0</v>
       </c>
+      <c r="AD4" s="9">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -1678,7 +1690,7 @@
         <v>77.0</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" ref="W5:AC5" si="3">W2-W3-W4</f>
+        <f t="shared" ref="W5:AD5" si="3">W2-W3-W4</f>
         <v>107</v>
       </c>
       <c r="X5" s="1">
@@ -1705,6 +1717,10 @@
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
+      <c r="AD5" s="1">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -1795,6 +1811,10 @@
         <f>AB6+36</f>
         <v>253</v>
       </c>
+      <c r="AD6" s="8">
+        <f>17+AC6</f>
+        <v>270</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -1880,6 +1900,9 @@
       <c r="AC7" s="1">
         <v>15.0</v>
       </c>
+      <c r="AD7" s="1">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -1965,6 +1988,9 @@
       <c r="AC8" s="1">
         <v>8.0</v>
       </c>
+      <c r="AD8" s="9">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -2036,7 +2062,7 @@
         <v>129.0</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" ref="Y9:AC9" si="5">Y6-Y7-Y8</f>
+        <f t="shared" ref="Y9:AD9" si="5">Y6-Y7-Y8</f>
         <v>139</v>
       </c>
       <c r="Z9" s="1">
@@ -2055,10 +2081,14 @@
         <f t="shared" si="5"/>
         <v>230</v>
       </c>
+      <c r="AD9" s="1">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2144,10 +2174,14 @@
         <f>AB10+8</f>
         <v>81</v>
       </c>
+      <c r="AD10" s="8">
+        <f>AC10+14</f>
+        <v>95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2227,10 +2261,13 @@
       <c r="AC11" s="1">
         <v>1.0</v>
       </c>
+      <c r="AD11" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2310,10 +2347,13 @@
       <c r="AC12" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD12" s="9">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2382,7 +2422,7 @@
         <v>52.0</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" ref="Z13:AC13" si="6">Z10-Z11-Z12</f>
+        <f t="shared" ref="Z13:AD13" si="6">Z10-Z11-Z12</f>
         <v>53</v>
       </c>
       <c r="AA13" s="1">
@@ -2397,10 +2437,14 @@
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
+      <c r="AD13" s="1">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2475,10 +2519,13 @@
       <c r="AC14" s="1">
         <v>6.0</v>
       </c>
+      <c r="AD14" s="1">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2552,10 +2599,13 @@
       <c r="AC15" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD15" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2629,10 +2679,13 @@
       <c r="AC16" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD16" s="9">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2709,10 +2762,14 @@
       <c r="AC17" s="1">
         <v>6.0</v>
       </c>
+      <c r="AD17" s="1">
+        <f>AD14-AD15-AD16</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2793,10 +2850,14 @@
         <f>AB18+12</f>
         <v>81</v>
       </c>
+      <c r="AD18" s="8">
+        <f>AC18+3</f>
+        <v>84</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2870,10 +2931,13 @@
       <c r="AC19" s="1">
         <v>4.0</v>
       </c>
+      <c r="AD19" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2947,10 +3011,13 @@
       <c r="AC20" s="1">
         <v>4.0</v>
       </c>
+      <c r="AD20" s="9">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3014,7 +3081,7 @@
         <v>51</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" ref="Z21:AC21" si="8">Z18-Z19-Z20</f>
+        <f t="shared" ref="Z21:AD21" si="8">Z18-Z19-Z20</f>
         <v>52</v>
       </c>
       <c r="AA21" s="1">
@@ -3029,10 +3096,14 @@
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
+      <c r="AD21" s="1">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3106,10 +3177,13 @@
       <c r="AC22" s="1">
         <v>8.0</v>
       </c>
+      <c r="AD22" s="1">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3180,13 +3254,16 @@
       <c r="AB23" s="1">
         <v>1.0</v>
       </c>
-      <c r="AC23" s="17">
+      <c r="AC23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AD23" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3257,13 +3334,16 @@
       <c r="AB24" s="1">
         <v>1.0</v>
       </c>
-      <c r="AC24" s="17">
+      <c r="AC24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AD24" s="9">
         <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3337,13 +3417,17 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="AC25" s="17">
+      <c r="AC25" s="1">
         <v>6.0</v>
+      </c>
+      <c r="AD25" s="1">
+        <f>AD22-AD23-AD24</f>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3413,10 +3497,14 @@
         <f>AB26+21</f>
         <v>111</v>
       </c>
+      <c r="AD26" s="8">
+        <f>AC26+22</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3480,10 +3568,13 @@
       <c r="AC27" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD27" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3547,10 +3638,13 @@
       <c r="AC28" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD28" s="9">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3617,10 +3711,14 @@
       <c r="AC29" s="1">
         <v>111.0</v>
       </c>
+      <c r="AD29" s="1">
+        <f>AD26-AD27-AD28</f>
+        <v>133</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3687,10 +3785,13 @@
         <f>AB30+11</f>
         <v>32</v>
       </c>
+      <c r="AD30" s="1">
+        <v>39.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3752,10 +3853,13 @@
       <c r="AC31" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD31" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3817,10 +3921,13 @@
       <c r="AC32" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD32" s="9">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3885,10 +3992,14 @@
       <c r="AC33" s="1">
         <v>32.0</v>
       </c>
+      <c r="AD33" s="1">
+        <f>AD30-AD31-AD32</f>
+        <v>39</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3947,10 +4058,13 @@
       <c r="AC34" s="1">
         <v>3.0</v>
       </c>
+      <c r="AD34" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4008,10 +4122,13 @@
       <c r="AC35" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD35" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4069,10 +4186,13 @@
       <c r="AC36" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD36" s="9">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4133,10 +4253,14 @@
       <c r="AC37" s="1">
         <v>3.0</v>
       </c>
+      <c r="AD37" s="1">
+        <f>AD34-AD35-AD36</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4194,10 +4318,13 @@
       <c r="AC38" s="1">
         <v>1.0</v>
       </c>
+      <c r="AD38" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4255,10 +4382,13 @@
       <c r="AC39" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD39" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4316,10 +4446,13 @@
       <c r="AC40" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD40" s="9">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4380,10 +4513,14 @@
       <c r="AC41" s="1">
         <v>1.0</v>
       </c>
+      <c r="AD41" s="1">
+        <f>AD38-AD39-AD40</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4441,10 +4578,13 @@
       <c r="AC42" s="1">
         <v>13.0</v>
       </c>
+      <c r="AD42" s="1">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4502,10 +4642,13 @@
       <c r="AC43" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD43" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4563,10 +4706,13 @@
       <c r="AC44" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD44" s="9">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4627,10 +4773,14 @@
       <c r="AC45" s="1">
         <v>13.0</v>
       </c>
+      <c r="AD45" s="1">
+        <f>AD42-AD43-AD44</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4682,10 +4832,13 @@
       <c r="AC46" s="1">
         <v>19.0</v>
       </c>
+      <c r="AD46" s="1">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4737,10 +4890,13 @@
       <c r="AC47" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD47" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4792,10 +4948,13 @@
       <c r="AC48" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD48" s="9">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4850,10 +5009,14 @@
       <c r="AC49" s="1">
         <v>19.0</v>
       </c>
+      <c r="AD49" s="1">
+        <f>AD46-AD47-AD48</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4905,10 +5068,13 @@
       <c r="AC50" s="1">
         <v>2.0</v>
       </c>
+      <c r="AD50" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4960,10 +5126,13 @@
       <c r="AC51" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD51" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5015,10 +5184,13 @@
       <c r="AC52" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD52" s="9">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5073,10 +5245,14 @@
       <c r="AC53" s="1">
         <v>2.0</v>
       </c>
+      <c r="AD53" s="1">
+        <f>AD50-AD51-AD52</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5128,10 +5304,13 @@
       <c r="AC54" s="1">
         <v>20.0</v>
       </c>
+      <c r="AD54" s="1">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5183,10 +5362,13 @@
       <c r="AC55" s="1">
         <v>1.0</v>
       </c>
+      <c r="AD55" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5238,10 +5420,13 @@
       <c r="AC56" s="1">
         <v>1.0</v>
       </c>
+      <c r="AD56" s="9">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5252,7 +5437,6 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -5296,10 +5480,14 @@
       <c r="AC57" s="1">
         <v>18.0</v>
       </c>
+      <c r="AD57" s="1">
+        <f>AD54-AD55-AD56</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5350,10 +5538,13 @@
       <c r="AC58" s="1">
         <v>13.0</v>
       </c>
+      <c r="AD58" s="1">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5400,13 +5591,16 @@
       <c r="AB59" s="1">
         <v>1.0</v>
       </c>
-      <c r="AC59" s="17">
+      <c r="AC59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AD59" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5453,13 +5647,16 @@
       <c r="AB60" s="1">
         <v>1.0</v>
       </c>
-      <c r="AC60" s="17">
+      <c r="AC60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AD60" s="9">
         <v>1.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5509,13 +5706,16 @@
         <f t="shared" si="18"/>
         <v>8</v>
       </c>
-      <c r="AC61" s="17">
+      <c r="AC61" s="1">
         <v>11.0</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>13.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5569,10 +5769,13 @@
       <c r="AC62" s="1">
         <v>15.0</v>
       </c>
+      <c r="AD62" s="1">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -5626,10 +5829,13 @@
       <c r="AC63" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD63" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5683,10 +5889,13 @@
       <c r="AC64" s="1">
         <v>1.0</v>
       </c>
+      <c r="AD64" s="9">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -5743,10 +5952,13 @@
       <c r="AC65" s="1">
         <v>14.0</v>
       </c>
+      <c r="AD65" s="9">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5805,10 +6017,13 @@
       <c r="AC66" s="1">
         <v>9.0</v>
       </c>
+      <c r="AD66" s="1">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5866,10 +6081,13 @@
       <c r="AC67" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD67" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5927,10 +6145,13 @@
       <c r="AC68" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD68" s="9">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5991,10 +6212,13 @@
       <c r="AC69" s="1">
         <v>9.0</v>
       </c>
+      <c r="AD69" s="1">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6026,7 +6250,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -6058,7 +6282,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -6090,7 +6314,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -6122,7 +6346,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6170,10 +6394,13 @@
       <c r="AC74" s="1">
         <v>2.0</v>
       </c>
+      <c r="AD74" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6221,10 +6448,13 @@
       <c r="AC75" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD75" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -6272,10 +6502,13 @@
       <c r="AC76" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD76" s="9">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -6326,10 +6559,13 @@
       <c r="AC77" s="1">
         <v>2.0</v>
       </c>
+      <c r="AD77" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -6361,7 +6597,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6393,7 +6629,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6425,7 +6661,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6457,7 +6693,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6489,7 +6725,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6521,7 +6757,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6553,7 +6789,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6585,7 +6821,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6619,10 +6855,13 @@
       <c r="AC86" s="1">
         <v>1.0</v>
       </c>
+      <c r="AD86" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6656,10 +6895,13 @@
       <c r="AC87" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD87" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6693,10 +6935,13 @@
       <c r="AC88" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD88" s="9">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6731,10 +6976,13 @@
       <c r="AC89" s="1">
         <v>1.0</v>
       </c>
+      <c r="AD89" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6768,10 +7016,13 @@
       <c r="AC90" s="1">
         <v>1.0</v>
       </c>
+      <c r="AD90" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6805,10 +7056,13 @@
       <c r="AC91" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD91" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6842,10 +7096,13 @@
       <c r="AC92" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD92" s="9">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6880,10 +7137,13 @@
       <c r="AC93" s="1">
         <v>1.0</v>
       </c>
+      <c r="AD93" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6927,10 +7187,13 @@
       <c r="AC94" s="1">
         <v>3.0</v>
       </c>
+      <c r="AD94" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6974,10 +7237,13 @@
       <c r="AC95" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD95" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -7021,10 +7287,13 @@
       <c r="AC96" s="1">
         <v>0.0</v>
       </c>
+      <c r="AD96" s="9">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -7071,13 +7340,16 @@
       <c r="AC97" s="1">
         <v>3.0</v>
       </c>
+      <c r="AD97" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" ref="B98:AC98" si="23">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B46+B50+B54+B58+B62+B66+B70+B74+B78+B82+B86+B90+B94</f>
+        <f t="shared" ref="B98:AD98" si="23">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B46+B50+B54+B58+B62+B66+B70+B74+B78+B82+B86+B90+B94</f>
         <v>1</v>
       </c>
       <c r="C98" s="2">
@@ -7188,13 +7460,16 @@
         <f t="shared" si="23"/>
         <v>966</v>
       </c>
-      <c r="AD98" s="33"/>
+      <c r="AD98" s="2">
+        <f t="shared" si="23"/>
+        <v>1054</v>
+      </c>
       <c r="AE98" s="33"/>
       <c r="AF98" s="33"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B99" s="2">
         <v>1.0</v>
@@ -7278,20 +7553,22 @@
       <c r="AB99" s="2">
         <v>820.0</v>
       </c>
-      <c r="AC99" s="34">
+      <c r="AC99" s="2">
         <v>966.0</v>
       </c>
-      <c r="AD99" s="33"/>
+      <c r="AD99" s="34">
+        <v>1054.0</v>
+      </c>
       <c r="AE99" s="33"/>
       <c r="AF99" s="33"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1">
-        <f t="shared" ref="C100:AC100" si="24">C99/B99-1</f>
+        <f t="shared" ref="C100:AD100" si="24">C99/B99-1</f>
         <v>0</v>
       </c>
       <c r="D100" s="1">
@@ -7398,47 +7675,51 @@
         <f t="shared" si="24"/>
         <v>0.1780487805</v>
       </c>
+      <c r="AD100" s="1">
+        <f t="shared" si="24"/>
+        <v>0.09109730849</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="35" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B101" s="36"/>
       <c r="C101" s="35"/>
       <c r="D101" s="36"/>
       <c r="E101" s="35" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F101" s="36"/>
       <c r="H101" s="36"/>
       <c r="I101" s="36"/>
       <c r="J101" s="35" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="K101" s="35" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L101" s="35" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="M101" s="35" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="N101" s="35" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="O101" s="37" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="P101" s="35" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="Q101" s="35" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="R101" s="36"/>
       <c r="S101" s="37" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="T101" s="36"/>
       <c r="U101" s="36"/>
@@ -7446,7 +7727,7 @@
       <c r="W101" s="36"/>
       <c r="X101" s="36"/>
       <c r="Y101" s="37" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="Z101" s="37"/>
       <c r="AA101" s="37"/>
@@ -7458,11 +7739,11 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="38" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G102" s="1"/>
       <c r="Q102" s="1"/>
@@ -7482,10 +7763,10 @@
     </row>
     <row r="104">
       <c r="A104" s="38" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C104" s="1"/>
       <c r="Q104" s="1"/>
@@ -7495,14 +7776,14 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B105" s="8">
         <f>U99/B99-1</f>
         <v>265</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Z105" s="39"/>
       <c r="AA105" s="39"/>
@@ -7510,14 +7791,14 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B106" s="40">
         <f>(1+B105)^(1/20)-1</f>
         <v>0.3220384364</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="Z106" s="39"/>
       <c r="AA106" s="39"/>
@@ -7525,7 +7806,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="Z107" s="39"/>
       <c r="AA107" s="39"/>
@@ -7533,7 +7814,7 @@
     </row>
     <row r="108">
       <c r="A108" s="38" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="Z108" s="39"/>
       <c r="AA108" s="39"/>
@@ -7546,10 +7827,10 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="F110" s="38" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="Z110" s="39"/>
       <c r="AA110" s="39"/>
@@ -12370,55 +12651,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="O1" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q1" s="41" t="s">
-        <v>169</v>
+        <v>3</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -12463,8 +12744,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>170</v>
+      <c r="A3" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="8">
         <v>59.0</v>
@@ -12512,49 +12793,49 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="A4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="16">
         <v>470.0</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="16">
         <v>529.0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <v>574.0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="16">
         <v>659.0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="16">
         <v>833.0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <v>1030.0</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="16">
         <v>1253.0</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="16">
         <v>1537.0</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="16">
         <v>1754.0</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="16">
         <v>1840.0</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="16">
         <v>2448.0</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="16">
         <v>2847.0</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="16">
         <v>3507.0</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="1">
         <v>3960.0</v>
       </c>
       <c r="P4" s="1">
@@ -12604,48 +12885,48 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>171</v>
+        <v>3</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="A10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16">
         <v>470.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="42" t="s">
-        <v>155</v>
+      <c r="A11" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="8">
         <v>59.0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <v>529.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="42" t="s">
-        <v>156</v>
+      <c r="A12" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="8">
         <v>45.0</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="16">
         <v>574.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="42" t="s">
-        <v>157</v>
+      <c r="A13" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="8">
         <v>0.21176470588235294</v>
@@ -12653,7 +12934,7 @@
       <c r="C13" s="8">
         <v>85.0</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="16">
         <v>659.0</v>
       </c>
       <c r="F13" s="8">
@@ -12661,8 +12942,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="42" t="s">
-        <v>158</v>
+      <c r="A14" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="B14" s="8">
         <v>0.1781609195402299</v>
@@ -12670,7 +12951,7 @@
       <c r="C14" s="8">
         <v>174.0</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="16">
         <v>833.0</v>
       </c>
       <c r="F14" s="8">
@@ -12678,8 +12959,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="42" t="s">
-        <v>159</v>
+      <c r="A15" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="B15" s="8">
         <v>0.15228426395939088</v>
@@ -12687,7 +12968,7 @@
       <c r="C15" s="8">
         <v>197.0</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="16">
         <v>1030.0</v>
       </c>
       <c r="F15" s="8">
@@ -12695,8 +12976,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="42" t="s">
-        <v>160</v>
+      <c r="A16" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="8">
         <v>0.3004484304932735</v>
@@ -12704,7 +12985,7 @@
       <c r="C16" s="8">
         <v>223.0</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="16">
         <v>1253.0</v>
       </c>
       <c r="F16" s="8">
@@ -12712,8 +12993,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="42" t="s">
-        <v>161</v>
+      <c r="A17" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="8">
         <v>0.1443661971830986</v>
@@ -12721,7 +13002,7 @@
       <c r="C17" s="8">
         <v>284.0</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="16">
         <v>1537.0</v>
       </c>
       <c r="F17" s="8">
@@ -12729,8 +13010,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="42" t="s">
-        <v>162</v>
+      <c r="A18" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="B18" s="8">
         <v>0.16129032258064516</v>
@@ -12738,7 +13019,7 @@
       <c r="C18" s="8">
         <v>217.0</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="16">
         <v>1754.0</v>
       </c>
       <c r="F18" s="8">
@@ -12746,8 +13027,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="42" t="s">
-        <v>163</v>
+      <c r="A19" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="B19" s="8">
         <v>1.0</v>
@@ -12755,7 +13036,7 @@
       <c r="C19" s="8">
         <v>86.0</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="16">
         <v>1840.0</v>
       </c>
       <c r="F19" s="8">
@@ -12763,8 +13044,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="42" t="s">
-        <v>164</v>
+      <c r="A20" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B20" s="8">
         <v>0.18914473684210525</v>
@@ -12772,7 +13053,7 @@
       <c r="C20" s="8">
         <v>608.0</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="16">
         <v>2448.0</v>
       </c>
       <c r="F20" s="8">
@@ -12780,8 +13061,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="42" t="s">
-        <v>165</v>
+      <c r="A21" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B21" s="8">
         <v>0.21804511278195488</v>
@@ -12789,7 +13070,7 @@
       <c r="C21" s="8">
         <v>399.0</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="16">
         <v>2847.0</v>
       </c>
       <c r="F21" s="8">
@@ -12797,8 +13078,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="42" t="s">
-        <v>166</v>
+      <c r="A22" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="B22" s="8">
         <f t="shared" ref="B22:B24" si="3">F22/C22</f>
@@ -12807,7 +13088,7 @@
       <c r="C22" s="8">
         <v>660.0</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="16">
         <v>3507.0</v>
       </c>
       <c r="F22" s="8">
@@ -12815,8 +13096,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="42" t="s">
-        <v>167</v>
+      <c r="A23" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="B23" s="8">
         <f t="shared" si="3"/>
@@ -12834,8 +13115,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="42" t="s">
-        <v>168</v>
+      <c r="A24" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="B24" s="8">
         <f t="shared" si="3"/>
@@ -12853,8 +13134,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="42" t="s">
-        <v>169</v>
+      <c r="A25" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="F25" s="1">
         <v>175.0</v>
@@ -12889,17 +13170,17 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>43903.0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>34.0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <f>31*C$19</f>
         <v>38.316</v>
       </c>
@@ -12909,13 +13190,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>43904.0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>45.0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <f t="shared" ref="C3:C16" si="2">C2*C$19</f>
         <v>47.358576</v>
       </c>
@@ -12925,13 +13206,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>43905.0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>56.0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <f t="shared" si="2"/>
         <v>58.53519994</v>
       </c>
@@ -12941,13 +13222,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>43906.0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>65.0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <f t="shared" si="2"/>
         <v>72.34950712</v>
       </c>
@@ -12957,13 +13238,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>43907.0</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>79.0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <f t="shared" si="2"/>
         <v>89.4239908</v>
       </c>
@@ -12973,13 +13254,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>43908.0</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>97.0</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <f t="shared" si="2"/>
         <v>110.5280526</v>
       </c>
@@ -12989,14 +13270,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>43909.0</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <f>97+31</f>
         <v>128</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <f t="shared" si="2"/>
         <v>136.6126731</v>
       </c>
@@ -13006,13 +13287,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>43910.0</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>158.0</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <f t="shared" si="2"/>
         <v>168.8532639</v>
       </c>
@@ -13022,13 +13303,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>43911.0</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>225.0</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <f t="shared" si="2"/>
         <v>208.7026342</v>
       </c>
@@ -13038,13 +13319,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>43912.0</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>266.0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <f t="shared" si="2"/>
         <v>257.9564558</v>
       </c>
@@ -13054,13 +13335,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>43913.0</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>301.0</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <f t="shared" si="2"/>
         <v>318.8341794</v>
       </c>
@@ -13070,13 +13351,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>43914.0</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>387.0</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <f t="shared" si="2"/>
         <v>394.0790458</v>
       </c>
@@ -13086,13 +13367,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>43915.0</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>502.0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <f t="shared" si="2"/>
         <v>487.0817005</v>
       </c>
@@ -13102,43 +13383,43 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>43916.0</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>589.0</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <f t="shared" si="2"/>
         <v>602.0329819</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>43917.0</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>690.0</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <f t="shared" si="2"/>
         <v>744.1127656</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>8</v>
+      <c r="B18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="12">
+      <c r="B19" s="13">
         <f>SUM(D2:D14)</f>
         <v>1489.301735</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="14">
         <v>1.236</v>
       </c>
     </row>
@@ -13161,13 +13442,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="15">
+      <c r="A1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="16">
         <v>1.0</v>
       </c>
     </row>
@@ -13178,19 +13459,19 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16">
+      <c r="A3" s="18">
         <f>MSE!B19</f>
         <v>1489.301735</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>20</v>
+      <c r="A4" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>21</v>
+      <c r="A6" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -13251,29 +13532,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
       <c r="T1" s="20"/>
     </row>
     <row r="2">
@@ -13283,17 +13564,17 @@
       <c r="B2" s="22">
         <v>1.0</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>44</v>
+      <c r="C2" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="22">
         <v>64.0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>46</v>
+      <c r="E2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="I2" s="23"/>
       <c r="T2" s="20"/>
@@ -13305,17 +13586,17 @@
       <c r="B3" s="22">
         <v>2.0</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>48</v>
+      <c r="C3" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="22">
         <v>61.0</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>46</v>
+      <c r="E3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="I3" s="23"/>
       <c r="T3" s="20"/>
@@ -13327,17 +13608,17 @@
       <c r="B4" s="22">
         <v>3.0</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>44</v>
+      <c r="C4" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="22">
         <v>64.0</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>46</v>
+      <c r="E4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="I4" s="23"/>
       <c r="T4" s="20"/>
@@ -13349,17 +13630,17 @@
       <c r="B5" s="22">
         <v>4.0</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>51</v>
+      <c r="C5" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="D5" s="22">
         <v>67.0</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>53</v>
+      <c r="E5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="I5" s="23"/>
       <c r="T5" s="20"/>
@@ -13371,15 +13652,15 @@
       <c r="B6" s="22">
         <v>5.0</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>51</v>
+      <c r="C6" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="22">
         <v>71.0</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="18" t="s">
-        <v>46</v>
+      <c r="F6" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="I6" s="23"/>
       <c r="T6" s="20"/>
@@ -13391,17 +13672,17 @@
       <c r="B7" s="22">
         <v>6.0</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>48</v>
+      <c r="C7" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="22">
         <v>53.0</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>46</v>
+      <c r="E7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="I7" s="23"/>
     </row>
@@ -13412,15 +13693,15 @@
       <c r="B8" s="22">
         <v>7.0</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>44</v>
+      <c r="C8" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="D8" s="22">
         <v>81.0</v>
       </c>
       <c r="E8" s="25"/>
-      <c r="F8" s="18" t="s">
-        <v>53</v>
+      <c r="F8" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -13431,17 +13712,17 @@
       <c r="B9" s="22">
         <v>8.0</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>48</v>
+      <c r="C9" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="D9" s="22">
         <v>77.0</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>53</v>
+      <c r="E9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="I9" s="26"/>
     </row>
@@ -13452,15 +13733,15 @@
       <c r="B10" s="22">
         <v>9.0</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>48</v>
+      <c r="C10" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="22">
         <v>59.0</v>
       </c>
       <c r="E10" s="25"/>
-      <c r="F10" s="18" t="s">
-        <v>46</v>
+      <c r="F10" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -13471,15 +13752,15 @@
       <c r="B11" s="22">
         <v>10.0</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>51</v>
+      <c r="C11" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="22">
         <v>89.0</v>
       </c>
       <c r="E11" s="25"/>
-      <c r="F11" s="18" t="s">
-        <v>46</v>
+      <c r="F11" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -13490,15 +13771,15 @@
       <c r="B12" s="22">
         <v>11.0</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>51</v>
+      <c r="C12" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="D12" s="22">
         <v>78.0</v>
       </c>
       <c r="E12" s="25"/>
-      <c r="F12" s="18" t="s">
-        <v>46</v>
+      <c r="F12" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="I12" s="23"/>
       <c r="M12" s="27"/>
@@ -13510,15 +13791,15 @@
       <c r="B13" s="22">
         <v>12.0</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>44</v>
+      <c r="C13" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="22">
         <v>82.0</v>
       </c>
       <c r="E13" s="25"/>
-      <c r="F13" s="18" t="s">
-        <v>53</v>
+      <c r="F13" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="I13" s="23"/>
     </row>
@@ -13529,15 +13810,15 @@
       <c r="B14" s="22">
         <v>13.0</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>60</v>
+      <c r="C14" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="D14" s="22">
         <v>81.0</v>
       </c>
       <c r="E14" s="25"/>
-      <c r="F14" s="18" t="s">
-        <v>46</v>
+      <c r="F14" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="I14" s="23"/>
     </row>
@@ -13548,15 +13829,15 @@
       <c r="B15" s="22">
         <v>14.0</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>44</v>
+      <c r="C15" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="D15" s="22">
         <v>73.0</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="18" t="s">
-        <v>46</v>
+      <c r="F15" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="27"/>
@@ -13569,15 +13850,15 @@
       <c r="B16" s="22">
         <v>15.0</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>44</v>
+      <c r="C16" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="D16" s="22">
         <v>72.0</v>
       </c>
       <c r="E16" s="25"/>
-      <c r="F16" s="18" t="s">
-        <v>53</v>
+      <c r="F16" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="I16" s="23"/>
     </row>
@@ -13588,15 +13869,15 @@
       <c r="B17" s="22">
         <v>16.0</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>62</v>
+      <c r="C17" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="D17" s="22">
         <v>59.0</v>
       </c>
       <c r="E17" s="25"/>
-      <c r="F17" s="18" t="s">
-        <v>46</v>
+      <c r="F17" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="I17" s="23"/>
     </row>
@@ -13607,15 +13888,15 @@
       <c r="B18" s="22">
         <v>17.0</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>44</v>
+      <c r="C18" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="D18" s="22">
         <v>70.0</v>
       </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="18" t="s">
-        <v>46</v>
+      <c r="F18" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="I18" s="23"/>
       <c r="M18" s="27"/>
@@ -13627,17 +13908,17 @@
       <c r="B19" s="22">
         <v>18.0</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>51</v>
+      <c r="C19" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="D19" s="22">
         <v>51.0</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>46</v>
+      <c r="E19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="I19" s="23"/>
     </row>
@@ -13648,17 +13929,17 @@
       <c r="B20" s="22">
         <v>19.0</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>44</v>
+      <c r="C20" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="D20" s="22">
         <v>84.0</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>53</v>
+      <c r="E20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="I20" s="23"/>
     </row>
@@ -13669,105 +13950,153 @@
       <c r="B21" s="22">
         <v>20.0</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>51</v>
+      <c r="C21" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="D21" s="22">
         <v>58.0</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>46</v>
+      <c r="E21" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="I21" s="23"/>
     </row>
     <row r="22">
-      <c r="A22" s="28">
+      <c r="A22" s="21">
         <v>43920.0</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="22">
         <v>21.0</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="29">
+      <c r="C22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="22">
         <v>77.0</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>53</v>
+      <c r="E22" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="I22" s="23"/>
     </row>
     <row r="23">
-      <c r="A23" s="28">
+      <c r="A23" s="21">
         <v>43920.0</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="28">
         <v>22.0</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="31">
+      <c r="C23" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="28">
         <v>67.0</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="31" t="s">
-        <v>46</v>
+      <c r="E23" s="29"/>
+      <c r="F23" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="I23" s="23"/>
     </row>
     <row r="24">
-      <c r="A24" s="28">
+      <c r="A24" s="21">
         <v>43920.0</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="28">
         <v>23.0</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="31">
+      <c r="C24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="28">
         <v>58.0</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="31" t="s">
-        <v>46</v>
+      <c r="E24" s="29"/>
+      <c r="F24" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="I24" s="23"/>
     </row>
     <row r="25">
-      <c r="A25" s="28">
+      <c r="A25" s="21">
         <v>43920.0</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="28">
         <v>24.0</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="31">
+      <c r="C25" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="28">
         <v>68.0</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="31" t="s">
-        <v>53</v>
+      <c r="E25" s="29"/>
+      <c r="F25" s="28" t="s">
+        <v>66</v>
       </c>
       <c r="I25" s="23"/>
     </row>
     <row r="26">
+      <c r="A26" s="30">
+        <v>43921.0</v>
+      </c>
+      <c r="B26" s="31">
+        <v>25.0</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="31">
+        <v>63.0</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="I26" s="23"/>
     </row>
     <row r="27">
+      <c r="A27" s="30">
+        <v>43921.0</v>
+      </c>
+      <c r="B27" s="31">
+        <v>26.0</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="31">
+        <v>52.0</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="I27" s="23"/>
     </row>
     <row r="28">
+      <c r="A28" s="30">
+        <v>43921.0</v>
+      </c>
+      <c r="B28" s="31">
+        <v>27.0</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="31">
+        <v>89.0</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="I28" s="23"/>
     </row>
     <row r="29">
